--- a/table4.08_20250207.xlsx
+++ b/table4.08_20250207.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsiitac-my.sharepoint.com/personal/sundaresan_20230983_iit_ac_lk/Documents/Desktop/Project life cycle/Can consider/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsiitac-my.sharepoint.com/personal/sundaresan_20230983_iit_ac_lk/Documents/Desktop/Project life cycle/Domestic Banking Units/Domestic-Banking-Unit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{55D8742A-110E-4F8E-90E1-860DA98E5062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAD1C8C6-7B4D-4CB6-A23E-EA78188F4186}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{55D8742A-110E-4F8E-90E1-860DA98E5062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E68232A-FE1D-4F4A-A24A-25177BFA347D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBUs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="82">
   <si>
     <t>End of Period</t>
   </si>
@@ -324,9 +324,6 @@
   <si>
     <t>(a) An Offshore Banking Unit (OBU) is an unit in a commercial bank, established in terms of Central Bank Circular No. 380 of 2nd May, 1979 which accepts deposits and grants advances in designated foreign currencies from and to (i) Non-Residents  (ii) Commercial Banks (iii) Board of Investment (BOI ) Enterprises, and  (iv)  Other residents approved by the Central Bank. However, with the implementation of Banking Act No.24 of 2024, the demarcation of DBU and OBU is eliminated effective from 14 June 2024.</t>
   </si>
-  <si>
-    <t>337780.98\325457</t>
-  </si>
 </sst>
 </file>
 
@@ -338,7 +335,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +401,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -648,14 +651,20 @@
     <xf numFmtId="17" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -666,14 +675,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -683,18 +698,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1009,8 +1012,8 @@
   </sheetPr>
   <dimension ref="B1:BJ730"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="89" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7:U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,119 +1077,119 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="2:41" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="54"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="58"/>
       <c r="V6" s="20"/>
     </row>
     <row r="7" spans="2:41" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="49" t="s">
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="44" t="s">
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="S7" s="44" t="s">
+      <c r="S7" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="44" t="s">
+      <c r="T7" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="U7" s="44" t="s">
+      <c r="U7" s="43" t="s">
         <v>16</v>
       </c>
       <c r="V7" s="20"/>
     </row>
     <row r="8" spans="2:41" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="49" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="44" t="s">
+      <c r="I8" s="51"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="L8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="50"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="44" t="s">
+      <c r="M8" s="51"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="44" t="s">
+      <c r="P8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="44" t="s">
+      <c r="Q8" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
       <c r="V8" s="20"/>
     </row>
     <row r="9" spans="2:41" s="7" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="26" t="s">
         <v>8</v>
       </c>
@@ -1196,7 +1199,7 @@
       <c r="J9" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="45"/>
+      <c r="K9" s="44"/>
       <c r="L9" s="26" t="s">
         <v>11</v>
       </c>
@@ -1206,17 +1209,17 @@
       <c r="N9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
       <c r="V9" s="20"/>
     </row>
     <row r="10" spans="2:41" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="48"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="27">
         <v>-1</v>
       </c>
@@ -13489,7 +13492,7 @@
       <c r="V191" s="22"/>
       <c r="AN191" s="14"/>
     </row>
-    <row r="192" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B192" s="10">
         <v>40544</v>
       </c>
@@ -13538,8 +13541,8 @@
       <c r="Q192" s="11">
         <v>1469169.48183265</v>
       </c>
-      <c r="R192" s="11" t="s">
-        <v>82</v>
+      <c r="R192" s="11">
+        <v>337780.98325456999</v>
       </c>
       <c r="S192" s="11">
         <v>2600713.27198999</v>
@@ -13553,7 +13556,7 @@
       <c r="V192" s="22"/>
       <c r="AN192" s="14"/>
     </row>
-    <row r="193" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="10">
         <v>40575</v>
       </c>
@@ -13609,7 +13612,7 @@
         <v>2642451.2532705702</v>
       </c>
       <c r="T193" s="23">
-        <v>299.67521258876303</v>
+        <v>299.67521258876297</v>
       </c>
       <c r="U193" s="23">
         <v>75.546503219514832</v>
@@ -13617,7 +13620,7 @@
       <c r="V193" s="22"/>
       <c r="AN193" s="14"/>
     </row>
-    <row r="194" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B194" s="10">
         <v>40603</v>
       </c>
@@ -16425,7 +16428,7 @@
         <v>76.485711163262408</v>
       </c>
     </row>
-    <row r="239" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B239" s="10">
         <v>41974</v>
       </c>
@@ -16489,7 +16492,7 @@
       <c r="V239" s="22"/>
       <c r="AN239" s="14"/>
     </row>
-    <row r="240" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B240" s="10">
         <v>42005</v>
       </c>
@@ -16553,7 +16556,7 @@
       <c r="V240" s="22"/>
       <c r="AN240" s="14"/>
     </row>
-    <row r="241" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B241" s="10">
         <v>42036</v>
       </c>
@@ -16617,7 +16620,7 @@
       <c r="V241" s="22"/>
       <c r="AN241" s="14"/>
     </row>
-    <row r="242" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B242" s="10">
         <v>42064</v>
       </c>
@@ -16681,7 +16684,7 @@
       <c r="V242" s="22"/>
       <c r="AN242" s="14"/>
     </row>
-    <row r="243" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B243" s="10">
         <v>42095</v>
       </c>
@@ -16745,7 +16748,7 @@
       <c r="V243" s="22"/>
       <c r="AN243" s="14"/>
     </row>
-    <row r="244" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B244" s="10">
         <v>42125</v>
       </c>
@@ -16809,7 +16812,7 @@
       <c r="V244" s="22"/>
       <c r="AN244" s="14"/>
     </row>
-    <row r="245" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B245" s="10">
         <v>42156</v>
       </c>
@@ -16873,7 +16876,7 @@
       <c r="V245" s="22"/>
       <c r="AN245" s="14"/>
     </row>
-    <row r="246" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B246" s="10">
         <v>42186</v>
       </c>
@@ -16937,7 +16940,7 @@
       <c r="V246" s="22"/>
       <c r="AN246" s="14"/>
     </row>
-    <row r="247" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B247" s="10">
         <v>42217</v>
       </c>
@@ -17001,7 +17004,7 @@
       <c r="V247" s="22"/>
       <c r="AN247" s="14"/>
     </row>
-    <row r="248" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B248" s="10">
         <v>42248</v>
       </c>
@@ -17065,7 +17068,7 @@
       <c r="V248" s="22"/>
       <c r="AN248" s="14"/>
     </row>
-    <row r="249" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B249" s="24" t="s">
         <v>67</v>
       </c>
@@ -17129,7 +17132,7 @@
       <c r="V249" s="22"/>
       <c r="AN249" s="14"/>
     </row>
-    <row r="250" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B250" s="10">
         <v>42309</v>
       </c>
@@ -17193,7 +17196,7 @@
       <c r="V250" s="22"/>
       <c r="AN250" s="14"/>
     </row>
-    <row r="251" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B251" s="10">
         <v>42339</v>
       </c>
@@ -17257,7 +17260,7 @@
       <c r="V251" s="22"/>
       <c r="AN251" s="14"/>
     </row>
-    <row r="252" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B252" s="10">
         <v>42370</v>
       </c>
@@ -17321,7 +17324,7 @@
       <c r="V252" s="22"/>
       <c r="AN252" s="14"/>
     </row>
-    <row r="253" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B253" s="10">
         <v>42401</v>
       </c>
@@ -17385,7 +17388,7 @@
       <c r="V253" s="22"/>
       <c r="AN253" s="14"/>
     </row>
-    <row r="254" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B254" s="10">
         <v>42430</v>
       </c>
@@ -17449,7 +17452,7 @@
       <c r="V254" s="22"/>
       <c r="AN254" s="14"/>
     </row>
-    <row r="255" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B255" s="10">
         <v>42461</v>
       </c>
@@ -17513,7 +17516,7 @@
       <c r="V255" s="22"/>
       <c r="AN255" s="14"/>
     </row>
-    <row r="256" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B256" s="10">
         <v>42491</v>
       </c>
@@ -17577,7 +17580,7 @@
       <c r="V256" s="22"/>
       <c r="AN256" s="14"/>
     </row>
-    <row r="257" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B257" s="10">
         <v>42522</v>
       </c>
@@ -17641,7 +17644,7 @@
       <c r="V257" s="22"/>
       <c r="AN257" s="14"/>
     </row>
-    <row r="258" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B258" s="10">
         <v>42552</v>
       </c>
@@ -17705,7 +17708,7 @@
       <c r="V258" s="22"/>
       <c r="AN258" s="14"/>
     </row>
-    <row r="259" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B259" s="10">
         <v>42583</v>
       </c>
@@ -17769,7 +17772,7 @@
       <c r="V259" s="22"/>
       <c r="AN259" s="14"/>
     </row>
-    <row r="260" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B260" s="10">
         <v>42614</v>
       </c>
@@ -17833,7 +17836,7 @@
       <c r="V260" s="22"/>
       <c r="AN260" s="14"/>
     </row>
-    <row r="261" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B261" s="10">
         <v>42644</v>
       </c>
@@ -17897,7 +17900,7 @@
       <c r="V261" s="22"/>
       <c r="AN261" s="14"/>
     </row>
-    <row r="262" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B262" s="10">
         <v>42675</v>
       </c>
@@ -17961,7 +17964,7 @@
       <c r="V262" s="22"/>
       <c r="AN262" s="14"/>
     </row>
-    <row r="263" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B263" s="10">
         <v>42705</v>
       </c>
@@ -18025,7 +18028,7 @@
       <c r="V263" s="22"/>
       <c r="AN263" s="14"/>
     </row>
-    <row r="264" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B264" s="10">
         <v>42736</v>
       </c>
@@ -18089,7 +18092,7 @@
       <c r="V264" s="22"/>
       <c r="AN264" s="14"/>
     </row>
-    <row r="265" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B265" s="10">
         <v>42767</v>
       </c>
@@ -18153,7 +18156,7 @@
       <c r="V265" s="22"/>
       <c r="AN265" s="14"/>
     </row>
-    <row r="266" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B266" s="10">
         <v>42795</v>
       </c>
@@ -18217,7 +18220,7 @@
       <c r="V266" s="22"/>
       <c r="AN266" s="14"/>
     </row>
-    <row r="267" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B267" s="10">
         <v>42826</v>
       </c>
@@ -18281,7 +18284,7 @@
       <c r="V267" s="22"/>
       <c r="AN267" s="14"/>
     </row>
-    <row r="268" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B268" s="10">
         <v>42856</v>
       </c>
@@ -18345,7 +18348,7 @@
       <c r="V268" s="22"/>
       <c r="AN268" s="14"/>
     </row>
-    <row r="269" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B269" s="10">
         <v>42887</v>
       </c>
@@ -18409,7 +18412,7 @@
       <c r="V269" s="22"/>
       <c r="AN269" s="14"/>
     </row>
-    <row r="270" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B270" s="10">
         <v>42917</v>
       </c>
@@ -18473,7 +18476,7 @@
       <c r="V270" s="22"/>
       <c r="AN270" s="14"/>
     </row>
-    <row r="271" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B271" s="10">
         <v>42948</v>
       </c>
@@ -18537,7 +18540,7 @@
       <c r="V271" s="22"/>
       <c r="AN271" s="14"/>
     </row>
-    <row r="272" spans="2:40" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B272" s="10">
         <v>42979</v>
       </c>
@@ -18601,7 +18604,7 @@
       <c r="V272" s="22"/>
       <c r="AN272" s="14"/>
     </row>
-    <row r="273" spans="2:62" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B273" s="10">
         <v>43009</v>
       </c>
@@ -18665,7 +18668,7 @@
       <c r="V273" s="22"/>
       <c r="AN273" s="14"/>
     </row>
-    <row r="274" spans="2:62" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B274" s="10">
         <v>43040</v>
       </c>
@@ -18729,7 +18732,7 @@
       <c r="V274" s="22"/>
       <c r="AN274" s="14"/>
     </row>
-    <row r="275" spans="2:62" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B275" s="10">
         <v>43070</v>
       </c>
@@ -18793,7 +18796,7 @@
       <c r="V275" s="22"/>
       <c r="AN275" s="14"/>
     </row>
-    <row r="276" spans="2:62" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B276" s="10">
         <v>43101</v>
       </c>
@@ -18896,7 +18899,7 @@
       <c r="BI276" s="35"/>
       <c r="BJ276" s="33"/>
     </row>
-    <row r="277" spans="2:62" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B277" s="10">
         <v>43132</v>
       </c>
@@ -18998,7 +19001,7 @@
       <c r="BH277" s="35"/>
       <c r="BI277" s="35"/>
     </row>
-    <row r="278" spans="2:62" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B278" s="10">
         <v>43160</v>
       </c>
@@ -19100,7 +19103,7 @@
       <c r="BH278" s="35"/>
       <c r="BI278" s="35"/>
     </row>
-    <row r="279" spans="2:62" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B279" s="10">
         <v>43191</v>
       </c>
@@ -19202,7 +19205,7 @@
       <c r="BH279" s="35"/>
       <c r="BI279" s="35"/>
     </row>
-    <row r="280" spans="2:62" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B280" s="10">
         <v>43221</v>
       </c>
@@ -19304,7 +19307,7 @@
       <c r="BH280" s="35"/>
       <c r="BI280" s="35"/>
     </row>
-    <row r="281" spans="2:62" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B281" s="10">
         <v>43252</v>
       </c>
@@ -19406,7 +19409,7 @@
       <c r="BH281" s="35"/>
       <c r="BI281" s="35"/>
     </row>
-    <row r="282" spans="2:62" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B282" s="10">
         <v>43282</v>
       </c>
@@ -19508,7 +19511,7 @@
       <c r="BH282" s="35"/>
       <c r="BI282" s="35"/>
     </row>
-    <row r="283" spans="2:62" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B283" s="10">
         <v>43313</v>
       </c>
@@ -19610,7 +19613,7 @@
       <c r="BH283" s="35"/>
       <c r="BI283" s="35"/>
     </row>
-    <row r="284" spans="2:62" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B284" s="10">
         <v>43344</v>
       </c>
@@ -19712,7 +19715,7 @@
       <c r="BH284" s="35"/>
       <c r="BI284" s="35"/>
     </row>
-    <row r="285" spans="2:62" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B285" s="10">
         <v>43374</v>
       </c>
@@ -19814,7 +19817,7 @@
       <c r="BH285" s="35"/>
       <c r="BI285" s="35"/>
     </row>
-    <row r="286" spans="2:62" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B286" s="10">
         <v>43405</v>
       </c>
@@ -19916,7 +19919,7 @@
       <c r="BH286" s="35"/>
       <c r="BI286" s="35"/>
     </row>
-    <row r="287" spans="2:62" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B287" s="10">
         <v>43435</v>
       </c>
@@ -20018,7 +20021,7 @@
       <c r="BH287" s="35"/>
       <c r="BI287" s="35"/>
     </row>
-    <row r="288" spans="2:62" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B288" s="10">
         <v>43466</v>
       </c>
@@ -20120,7 +20123,7 @@
       <c r="BH288" s="35"/>
       <c r="BI288" s="35"/>
     </row>
-    <row r="289" spans="2:61" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B289" s="10">
         <v>43497</v>
       </c>
@@ -20222,7 +20225,7 @@
       <c r="BH289" s="35"/>
       <c r="BI289" s="35"/>
     </row>
-    <row r="290" spans="2:61" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B290" s="10">
         <v>43525</v>
       </c>
@@ -20324,7 +20327,7 @@
       <c r="BH290" s="35"/>
       <c r="BI290" s="35"/>
     </row>
-    <row r="291" spans="2:61" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B291" s="10">
         <v>43556</v>
       </c>
@@ -20426,7 +20429,7 @@
       <c r="BH291" s="35"/>
       <c r="BI291" s="35"/>
     </row>
-    <row r="292" spans="2:61" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B292" s="10">
         <v>43586</v>
       </c>
@@ -20528,7 +20531,7 @@
       <c r="BH292" s="35"/>
       <c r="BI292" s="35"/>
     </row>
-    <row r="293" spans="2:61" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B293" s="10">
         <v>43617</v>
       </c>
@@ -20630,7 +20633,7 @@
       <c r="BH293" s="35"/>
       <c r="BI293" s="35"/>
     </row>
-    <row r="294" spans="2:61" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B294" s="10">
         <v>43647</v>
       </c>
@@ -20732,7 +20735,7 @@
       <c r="BH294" s="35"/>
       <c r="BI294" s="35"/>
     </row>
-    <row r="295" spans="2:61" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B295" s="10">
         <v>43678</v>
       </c>
@@ -20834,7 +20837,7 @@
       <c r="BH295" s="35"/>
       <c r="BI295" s="35"/>
     </row>
-    <row r="296" spans="2:61" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B296" s="10">
         <v>43709</v>
       </c>
@@ -20936,7 +20939,7 @@
       <c r="BH296" s="35"/>
       <c r="BI296" s="35"/>
     </row>
-    <row r="297" spans="2:61" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B297" s="10">
         <v>43739</v>
       </c>
@@ -21038,7 +21041,7 @@
       <c r="BH297" s="35"/>
       <c r="BI297" s="35"/>
     </row>
-    <row r="298" spans="2:61" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B298" s="10">
         <v>43770</v>
       </c>
@@ -21140,7 +21143,7 @@
       <c r="BH298" s="35"/>
       <c r="BI298" s="35"/>
     </row>
-    <row r="299" spans="2:61" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B299" s="10">
         <v>43800</v>
       </c>
@@ -21222,7 +21225,7 @@
       <c r="AN299" s="35"/>
       <c r="AO299" s="35"/>
     </row>
-    <row r="300" spans="2:61" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B300" s="10">
         <v>43831</v>
       </c>
@@ -21304,7 +21307,7 @@
       <c r="AN300" s="35"/>
       <c r="AO300" s="35"/>
     </row>
-    <row r="301" spans="2:61" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B301" s="10">
         <v>43862</v>
       </c>
@@ -21386,7 +21389,7 @@
       <c r="AN301" s="35"/>
       <c r="AO301" s="35"/>
     </row>
-    <row r="302" spans="2:61" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B302" s="10">
         <v>43891</v>
       </c>
@@ -21468,7 +21471,7 @@
       <c r="AN302" s="35"/>
       <c r="AO302" s="35"/>
     </row>
-    <row r="303" spans="2:61" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B303" s="10">
         <v>43922</v>
       </c>
@@ -26142,7 +26145,7 @@
       <c r="AN359" s="35"/>
       <c r="AO359" s="35"/>
     </row>
-    <row r="360" spans="2:41" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B360" s="25"/>
       <c r="C360" s="14"/>
       <c r="D360" s="14"/>
@@ -26184,7 +26187,7 @@
       <c r="AN360" s="35"/>
       <c r="AO360" s="35"/>
     </row>
-    <row r="361" spans="2:41" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:41" x14ac:dyDescent="0.3">
       <c r="Q361" s="15" t="s">
         <v>51</v>
       </c>
@@ -26210,26 +26213,26 @@
       <c r="AO361" s="35"/>
     </row>
     <row r="362" spans="2:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B362" s="44" t="s">
+      <c r="B362" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C362" s="56" t="s">
+      <c r="C362" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D362" s="57"/>
-      <c r="E362" s="57"/>
-      <c r="F362" s="57"/>
-      <c r="G362" s="57"/>
-      <c r="H362" s="57"/>
-      <c r="I362" s="57"/>
-      <c r="J362" s="57"/>
-      <c r="K362" s="57"/>
-      <c r="L362" s="57"/>
-      <c r="M362" s="57"/>
-      <c r="N362" s="57"/>
-      <c r="O362" s="57"/>
-      <c r="P362" s="57"/>
-      <c r="Q362" s="58"/>
+      <c r="D362" s="53"/>
+      <c r="E362" s="53"/>
+      <c r="F362" s="53"/>
+      <c r="G362" s="53"/>
+      <c r="H362" s="53"/>
+      <c r="I362" s="53"/>
+      <c r="J362" s="53"/>
+      <c r="K362" s="53"/>
+      <c r="L362" s="53"/>
+      <c r="M362" s="53"/>
+      <c r="N362" s="53"/>
+      <c r="O362" s="53"/>
+      <c r="P362" s="53"/>
+      <c r="Q362" s="54"/>
       <c r="V362" s="22"/>
       <c r="W362" s="40"/>
       <c r="X362" s="35"/>
@@ -26252,32 +26255,32 @@
       <c r="AO362" s="35"/>
     </row>
     <row r="363" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B363" s="45"/>
-      <c r="C363" s="44" t="s">
+      <c r="B363" s="44"/>
+      <c r="C363" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D363" s="49" t="s">
+      <c r="D363" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E363" s="50"/>
-      <c r="F363" s="50"/>
-      <c r="G363" s="50"/>
-      <c r="H363" s="51"/>
-      <c r="I363" s="49" t="s">
+      <c r="E363" s="51"/>
+      <c r="F363" s="51"/>
+      <c r="G363" s="51"/>
+      <c r="H363" s="46"/>
+      <c r="I363" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J363" s="50"/>
-      <c r="K363" s="51"/>
-      <c r="L363" s="49" t="s">
+      <c r="J363" s="51"/>
+      <c r="K363" s="46"/>
+      <c r="L363" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="M363" s="50"/>
-      <c r="N363" s="51"/>
-      <c r="O363" s="49" t="s">
+      <c r="M363" s="51"/>
+      <c r="N363" s="46"/>
+      <c r="O363" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="P363" s="51"/>
-      <c r="Q363" s="44" t="s">
+      <c r="P363" s="46"/>
+      <c r="Q363" s="43" t="s">
         <v>25</v>
       </c>
       <c r="V363" s="22"/>
@@ -26302,46 +26305,46 @@
       <c r="AO363" s="35"/>
     </row>
     <row r="364" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B364" s="45"/>
-      <c r="C364" s="45"/>
-      <c r="D364" s="49" t="s">
+      <c r="B364" s="44"/>
+      <c r="C364" s="44"/>
+      <c r="D364" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="E364" s="51"/>
-      <c r="F364" s="46" t="s">
+      <c r="E364" s="46"/>
+      <c r="F364" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G364" s="46" t="s">
+      <c r="G364" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H364" s="46" t="s">
+      <c r="H364" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="I364" s="46" t="s">
+      <c r="I364" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="J364" s="46" t="s">
+      <c r="J364" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="K364" s="46" t="s">
+      <c r="K364" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="L364" s="44" t="s">
+      <c r="L364" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="M364" s="44" t="s">
+      <c r="M364" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="N364" s="44" t="s">
+      <c r="N364" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O364" s="44" t="s">
+      <c r="O364" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="P364" s="44" t="s">
+      <c r="P364" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="Q364" s="45"/>
+      <c r="Q364" s="44"/>
       <c r="V364" s="22"/>
       <c r="W364" s="40"/>
       <c r="X364" s="35"/>
@@ -26364,26 +26367,26 @@
       <c r="AO364" s="35"/>
     </row>
     <row r="365" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B365" s="45"/>
-      <c r="C365" s="45"/>
+      <c r="B365" s="44"/>
+      <c r="C365" s="44"/>
       <c r="D365" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E365" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F365" s="47"/>
-      <c r="G365" s="47"/>
-      <c r="H365" s="47"/>
-      <c r="I365" s="47"/>
-      <c r="J365" s="47"/>
-      <c r="K365" s="47"/>
-      <c r="L365" s="45"/>
-      <c r="M365" s="45"/>
-      <c r="N365" s="45"/>
-      <c r="O365" s="45"/>
-      <c r="P365" s="45"/>
-      <c r="Q365" s="45"/>
+      <c r="F365" s="49"/>
+      <c r="G365" s="49"/>
+      <c r="H365" s="49"/>
+      <c r="I365" s="49"/>
+      <c r="J365" s="49"/>
+      <c r="K365" s="49"/>
+      <c r="L365" s="44"/>
+      <c r="M365" s="44"/>
+      <c r="N365" s="44"/>
+      <c r="O365" s="44"/>
+      <c r="P365" s="44"/>
+      <c r="Q365" s="44"/>
       <c r="V365" s="22"/>
       <c r="W365" s="40"/>
       <c r="X365" s="35"/>
@@ -26406,7 +26409,7 @@
       <c r="AO365" s="35"/>
     </row>
     <row r="366" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B366" s="48"/>
+      <c r="B366" s="50"/>
       <c r="C366" s="9">
         <v>-21</v>
       </c>
@@ -50717,26 +50720,26 @@
       <c r="AV716" s="35"/>
     </row>
     <row r="717" spans="2:48" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B717" s="43" t="s">
+      <c r="B717" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C717" s="43"/>
-      <c r="D717" s="43"/>
-      <c r="E717" s="43"/>
-      <c r="F717" s="43"/>
-      <c r="G717" s="43"/>
-      <c r="H717" s="43"/>
-      <c r="I717" s="43"/>
-      <c r="J717" s="43"/>
-      <c r="K717" s="43"/>
-      <c r="L717" s="43"/>
-      <c r="M717" s="43"/>
-      <c r="N717" s="43"/>
-      <c r="O717" s="43"/>
-      <c r="P717" s="43"/>
-      <c r="Q717" s="43"/>
-      <c r="R717" s="43"/>
-      <c r="S717" s="43"/>
+      <c r="C717" s="55"/>
+      <c r="D717" s="55"/>
+      <c r="E717" s="55"/>
+      <c r="F717" s="55"/>
+      <c r="G717" s="55"/>
+      <c r="H717" s="55"/>
+      <c r="I717" s="55"/>
+      <c r="J717" s="55"/>
+      <c r="K717" s="55"/>
+      <c r="L717" s="55"/>
+      <c r="M717" s="55"/>
+      <c r="N717" s="55"/>
+      <c r="O717" s="55"/>
+      <c r="P717" s="55"/>
+      <c r="Q717" s="55"/>
+      <c r="R717" s="55"/>
+      <c r="S717" s="55"/>
       <c r="T717" s="35"/>
       <c r="U717" s="35"/>
       <c r="V717" s="35"/>
@@ -50774,26 +50777,26 @@
       <c r="AH718" s="35"/>
     </row>
     <row r="719" spans="2:48" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B719" s="43" t="s">
+      <c r="B719" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C719" s="43"/>
-      <c r="D719" s="43"/>
-      <c r="E719" s="43"/>
-      <c r="F719" s="43"/>
-      <c r="G719" s="43"/>
-      <c r="H719" s="43"/>
-      <c r="I719" s="43"/>
-      <c r="J719" s="43"/>
-      <c r="K719" s="43"/>
-      <c r="L719" s="43"/>
-      <c r="M719" s="43"/>
-      <c r="N719" s="43"/>
-      <c r="O719" s="43"/>
-      <c r="P719" s="43"/>
-      <c r="Q719" s="43"/>
-      <c r="R719" s="43"/>
-      <c r="S719" s="43"/>
+      <c r="C719" s="55"/>
+      <c r="D719" s="55"/>
+      <c r="E719" s="55"/>
+      <c r="F719" s="55"/>
+      <c r="G719" s="55"/>
+      <c r="H719" s="55"/>
+      <c r="I719" s="55"/>
+      <c r="J719" s="55"/>
+      <c r="K719" s="55"/>
+      <c r="L719" s="55"/>
+      <c r="M719" s="55"/>
+      <c r="N719" s="55"/>
+      <c r="O719" s="55"/>
+      <c r="P719" s="55"/>
+      <c r="Q719" s="55"/>
+      <c r="R719" s="55"/>
+      <c r="S719" s="55"/>
       <c r="T719" s="35"/>
       <c r="U719" s="35"/>
       <c r="V719" s="35"/>
@@ -50851,26 +50854,26 @@
       <c r="AH721" s="35"/>
     </row>
     <row r="722" spans="2:34" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B722" s="55" t="s">
+      <c r="B722" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C722" s="55"/>
-      <c r="D722" s="55"/>
-      <c r="E722" s="55"/>
-      <c r="F722" s="55"/>
-      <c r="G722" s="55"/>
-      <c r="H722" s="55"/>
-      <c r="I722" s="55"/>
-      <c r="J722" s="55"/>
-      <c r="K722" s="55"/>
-      <c r="L722" s="55"/>
-      <c r="M722" s="55"/>
-      <c r="N722" s="55"/>
-      <c r="O722" s="55"/>
-      <c r="P722" s="55"/>
-      <c r="Q722" s="55"/>
-      <c r="R722" s="55"/>
-      <c r="S722" s="55"/>
+      <c r="C722" s="47"/>
+      <c r="D722" s="47"/>
+      <c r="E722" s="47"/>
+      <c r="F722" s="47"/>
+      <c r="G722" s="47"/>
+      <c r="H722" s="47"/>
+      <c r="I722" s="47"/>
+      <c r="J722" s="47"/>
+      <c r="K722" s="47"/>
+      <c r="L722" s="47"/>
+      <c r="M722" s="47"/>
+      <c r="N722" s="47"/>
+      <c r="O722" s="47"/>
+      <c r="P722" s="47"/>
+      <c r="Q722" s="47"/>
+      <c r="R722" s="47"/>
+      <c r="S722" s="47"/>
       <c r="T722" s="35"/>
       <c r="U722" s="35"/>
       <c r="V722" s="35"/>
@@ -51009,16 +51012,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="M364:M365"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="N364:N365"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="O363:P363"/>
-    <mergeCell ref="L364:L365"/>
+    <mergeCell ref="B719:S719"/>
+    <mergeCell ref="C363:C365"/>
+    <mergeCell ref="F364:F365"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C6:U6"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="H8:J8"/>
     <mergeCell ref="B722:S722"/>
     <mergeCell ref="Q363:Q365"/>
     <mergeCell ref="I364:I365"/>
@@ -51035,23 +51044,18 @@
     <mergeCell ref="D363:H363"/>
     <mergeCell ref="B717:S717"/>
     <mergeCell ref="O364:O365"/>
-    <mergeCell ref="B719:S719"/>
-    <mergeCell ref="C363:C365"/>
-    <mergeCell ref="F364:F365"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C6:U6"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="U7:U9"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="N364:N365"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="O363:P363"/>
+    <mergeCell ref="L364:L365"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="M364:M365"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.17" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" fitToWidth="2" fitToHeight="2" orientation="landscape" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
   <headerFooter>
@@ -51101,7 +51105,7 @@
       </c>
     </row>
     <row r="4" spans="2:19" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -51124,12 +51128,12 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="44" t="s">
+      <c r="S4" s="43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="45"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
@@ -51154,10 +51158,10 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="45"/>
+      <c r="S5" s="44"/>
     </row>
     <row r="6" spans="2:19" s="7" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="45"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="16" t="s">
         <v>54</v>
       </c>
@@ -51206,10 +51210,10 @@
       <c r="R6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="45"/>
+      <c r="S6" s="44"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="48"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="9">
         <v>-1</v>
       </c>
@@ -70984,26 +70988,26 @@
       <c r="S357" s="14"/>
     </row>
     <row r="358" spans="2:19" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B358" s="43" t="s">
+      <c r="B358" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="C358" s="43"/>
-      <c r="D358" s="43"/>
-      <c r="E358" s="43"/>
-      <c r="F358" s="43"/>
-      <c r="G358" s="43"/>
-      <c r="H358" s="43"/>
-      <c r="I358" s="43"/>
-      <c r="J358" s="43"/>
-      <c r="K358" s="43"/>
-      <c r="L358" s="43"/>
-      <c r="M358" s="43"/>
-      <c r="N358" s="43"/>
-      <c r="O358" s="43"/>
-      <c r="P358" s="43"/>
-      <c r="Q358" s="43"/>
-      <c r="R358" s="43"/>
-      <c r="S358" s="43"/>
+      <c r="C358" s="55"/>
+      <c r="D358" s="55"/>
+      <c r="E358" s="55"/>
+      <c r="F358" s="55"/>
+      <c r="G358" s="55"/>
+      <c r="H358" s="55"/>
+      <c r="I358" s="55"/>
+      <c r="J358" s="55"/>
+      <c r="K358" s="55"/>
+      <c r="L358" s="55"/>
+      <c r="M358" s="55"/>
+      <c r="N358" s="55"/>
+      <c r="O358" s="55"/>
+      <c r="P358" s="55"/>
+      <c r="Q358" s="55"/>
+      <c r="R358" s="55"/>
+      <c r="S358" s="55"/>
     </row>
     <row r="359" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B359" s="2" t="s">

--- a/table4.08_20250207.xlsx
+++ b/table4.08_20250207.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{55D8742A-110E-4F8E-90E1-860DA98E5062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E68232A-FE1D-4F4A-A24A-25177BFA347D}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBUs" sheetId="1" r:id="rId1"/>
@@ -651,20 +651,14 @@
     <xf numFmtId="17" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -675,8 +669,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -686,18 +698,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1012,8 +1012,8 @@
   </sheetPr>
   <dimension ref="B1:BJ730"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="89" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7:U9"/>
+    <sheetView tabSelected="1" topLeftCell="A357" zoomScale="89" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R549" sqref="R549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1077,119 +1077,119 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="2:41" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="58"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="54"/>
       <c r="V6" s="20"/>
     </row>
     <row r="7" spans="2:41" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="45" t="s">
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="43" t="s">
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="S7" s="43" t="s">
+      <c r="S7" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="43" t="s">
+      <c r="T7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="U7" s="43" t="s">
+      <c r="U7" s="44" t="s">
         <v>16</v>
       </c>
       <c r="V7" s="20"/>
     </row>
     <row r="8" spans="2:41" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="43" t="s">
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="45" t="s">
+      <c r="L8" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="51"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="43" t="s">
+      <c r="M8" s="50"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="43" t="s">
+      <c r="P8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="43" t="s">
+      <c r="Q8" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
       <c r="V8" s="20"/>
     </row>
     <row r="9" spans="2:41" s="7" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="26" t="s">
         <v>8</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="J9" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="44"/>
+      <c r="K9" s="45"/>
       <c r="L9" s="26" t="s">
         <v>11</v>
       </c>
@@ -1209,17 +1209,17 @@
       <c r="N9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
       <c r="V9" s="20"/>
     </row>
     <row r="10" spans="2:41" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="50"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="27">
         <v>-1</v>
       </c>
@@ -26213,26 +26213,26 @@
       <c r="AO361" s="35"/>
     </row>
     <row r="362" spans="2:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B362" s="43" t="s">
+      <c r="B362" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C362" s="52" t="s">
+      <c r="C362" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D362" s="53"/>
-      <c r="E362" s="53"/>
-      <c r="F362" s="53"/>
-      <c r="G362" s="53"/>
-      <c r="H362" s="53"/>
-      <c r="I362" s="53"/>
-      <c r="J362" s="53"/>
-      <c r="K362" s="53"/>
-      <c r="L362" s="53"/>
-      <c r="M362" s="53"/>
-      <c r="N362" s="53"/>
-      <c r="O362" s="53"/>
-      <c r="P362" s="53"/>
-      <c r="Q362" s="54"/>
+      <c r="D362" s="57"/>
+      <c r="E362" s="57"/>
+      <c r="F362" s="57"/>
+      <c r="G362" s="57"/>
+      <c r="H362" s="57"/>
+      <c r="I362" s="57"/>
+      <c r="J362" s="57"/>
+      <c r="K362" s="57"/>
+      <c r="L362" s="57"/>
+      <c r="M362" s="57"/>
+      <c r="N362" s="57"/>
+      <c r="O362" s="57"/>
+      <c r="P362" s="57"/>
+      <c r="Q362" s="58"/>
       <c r="V362" s="22"/>
       <c r="W362" s="40"/>
       <c r="X362" s="35"/>
@@ -26255,32 +26255,32 @@
       <c r="AO362" s="35"/>
     </row>
     <row r="363" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B363" s="44"/>
-      <c r="C363" s="43" t="s">
+      <c r="B363" s="45"/>
+      <c r="C363" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D363" s="45" t="s">
+      <c r="D363" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E363" s="51"/>
-      <c r="F363" s="51"/>
-      <c r="G363" s="51"/>
-      <c r="H363" s="46"/>
-      <c r="I363" s="45" t="s">
+      <c r="E363" s="50"/>
+      <c r="F363" s="50"/>
+      <c r="G363" s="50"/>
+      <c r="H363" s="51"/>
+      <c r="I363" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J363" s="51"/>
-      <c r="K363" s="46"/>
-      <c r="L363" s="45" t="s">
+      <c r="J363" s="50"/>
+      <c r="K363" s="51"/>
+      <c r="L363" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="M363" s="51"/>
-      <c r="N363" s="46"/>
-      <c r="O363" s="45" t="s">
+      <c r="M363" s="50"/>
+      <c r="N363" s="51"/>
+      <c r="O363" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P363" s="46"/>
-      <c r="Q363" s="43" t="s">
+      <c r="P363" s="51"/>
+      <c r="Q363" s="44" t="s">
         <v>25</v>
       </c>
       <c r="V363" s="22"/>
@@ -26305,46 +26305,46 @@
       <c r="AO363" s="35"/>
     </row>
     <row r="364" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B364" s="44"/>
-      <c r="C364" s="44"/>
-      <c r="D364" s="45" t="s">
+      <c r="B364" s="45"/>
+      <c r="C364" s="45"/>
+      <c r="D364" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E364" s="46"/>
-      <c r="F364" s="48" t="s">
+      <c r="E364" s="51"/>
+      <c r="F364" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G364" s="48" t="s">
+      <c r="G364" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H364" s="48" t="s">
+      <c r="H364" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I364" s="48" t="s">
+      <c r="I364" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="J364" s="48" t="s">
+      <c r="J364" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="K364" s="48" t="s">
+      <c r="K364" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L364" s="43" t="s">
+      <c r="L364" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="M364" s="43" t="s">
+      <c r="M364" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="N364" s="43" t="s">
+      <c r="N364" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="O364" s="43" t="s">
+      <c r="O364" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="P364" s="43" t="s">
+      <c r="P364" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="Q364" s="44"/>
+      <c r="Q364" s="45"/>
       <c r="V364" s="22"/>
       <c r="W364" s="40"/>
       <c r="X364" s="35"/>
@@ -26367,26 +26367,26 @@
       <c r="AO364" s="35"/>
     </row>
     <row r="365" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B365" s="44"/>
-      <c r="C365" s="44"/>
+      <c r="B365" s="45"/>
+      <c r="C365" s="45"/>
       <c r="D365" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E365" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F365" s="49"/>
-      <c r="G365" s="49"/>
-      <c r="H365" s="49"/>
-      <c r="I365" s="49"/>
-      <c r="J365" s="49"/>
-      <c r="K365" s="49"/>
-      <c r="L365" s="44"/>
-      <c r="M365" s="44"/>
-      <c r="N365" s="44"/>
-      <c r="O365" s="44"/>
-      <c r="P365" s="44"/>
-      <c r="Q365" s="44"/>
+      <c r="F365" s="47"/>
+      <c r="G365" s="47"/>
+      <c r="H365" s="47"/>
+      <c r="I365" s="47"/>
+      <c r="J365" s="47"/>
+      <c r="K365" s="47"/>
+      <c r="L365" s="45"/>
+      <c r="M365" s="45"/>
+      <c r="N365" s="45"/>
+      <c r="O365" s="45"/>
+      <c r="P365" s="45"/>
+      <c r="Q365" s="45"/>
       <c r="V365" s="22"/>
       <c r="W365" s="40"/>
       <c r="X365" s="35"/>
@@ -26409,7 +26409,7 @@
       <c r="AO365" s="35"/>
     </row>
     <row r="366" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B366" s="50"/>
+      <c r="B366" s="48"/>
       <c r="C366" s="9">
         <v>-21</v>
       </c>
@@ -50720,26 +50720,26 @@
       <c r="AV716" s="35"/>
     </row>
     <row r="717" spans="2:48" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B717" s="55" t="s">
+      <c r="B717" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C717" s="55"/>
-      <c r="D717" s="55"/>
-      <c r="E717" s="55"/>
-      <c r="F717" s="55"/>
-      <c r="G717" s="55"/>
-      <c r="H717" s="55"/>
-      <c r="I717" s="55"/>
-      <c r="J717" s="55"/>
-      <c r="K717" s="55"/>
-      <c r="L717" s="55"/>
-      <c r="M717" s="55"/>
-      <c r="N717" s="55"/>
-      <c r="O717" s="55"/>
-      <c r="P717" s="55"/>
-      <c r="Q717" s="55"/>
-      <c r="R717" s="55"/>
-      <c r="S717" s="55"/>
+      <c r="C717" s="43"/>
+      <c r="D717" s="43"/>
+      <c r="E717" s="43"/>
+      <c r="F717" s="43"/>
+      <c r="G717" s="43"/>
+      <c r="H717" s="43"/>
+      <c r="I717" s="43"/>
+      <c r="J717" s="43"/>
+      <c r="K717" s="43"/>
+      <c r="L717" s="43"/>
+      <c r="M717" s="43"/>
+      <c r="N717" s="43"/>
+      <c r="O717" s="43"/>
+      <c r="P717" s="43"/>
+      <c r="Q717" s="43"/>
+      <c r="R717" s="43"/>
+      <c r="S717" s="43"/>
       <c r="T717" s="35"/>
       <c r="U717" s="35"/>
       <c r="V717" s="35"/>
@@ -50777,26 +50777,26 @@
       <c r="AH718" s="35"/>
     </row>
     <row r="719" spans="2:48" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B719" s="55" t="s">
+      <c r="B719" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C719" s="55"/>
-      <c r="D719" s="55"/>
-      <c r="E719" s="55"/>
-      <c r="F719" s="55"/>
-      <c r="G719" s="55"/>
-      <c r="H719" s="55"/>
-      <c r="I719" s="55"/>
-      <c r="J719" s="55"/>
-      <c r="K719" s="55"/>
-      <c r="L719" s="55"/>
-      <c r="M719" s="55"/>
-      <c r="N719" s="55"/>
-      <c r="O719" s="55"/>
-      <c r="P719" s="55"/>
-      <c r="Q719" s="55"/>
-      <c r="R719" s="55"/>
-      <c r="S719" s="55"/>
+      <c r="C719" s="43"/>
+      <c r="D719" s="43"/>
+      <c r="E719" s="43"/>
+      <c r="F719" s="43"/>
+      <c r="G719" s="43"/>
+      <c r="H719" s="43"/>
+      <c r="I719" s="43"/>
+      <c r="J719" s="43"/>
+      <c r="K719" s="43"/>
+      <c r="L719" s="43"/>
+      <c r="M719" s="43"/>
+      <c r="N719" s="43"/>
+      <c r="O719" s="43"/>
+      <c r="P719" s="43"/>
+      <c r="Q719" s="43"/>
+      <c r="R719" s="43"/>
+      <c r="S719" s="43"/>
       <c r="T719" s="35"/>
       <c r="U719" s="35"/>
       <c r="V719" s="35"/>
@@ -50854,26 +50854,26 @@
       <c r="AH721" s="35"/>
     </row>
     <row r="722" spans="2:34" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B722" s="47" t="s">
+      <c r="B722" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C722" s="47"/>
-      <c r="D722" s="47"/>
-      <c r="E722" s="47"/>
-      <c r="F722" s="47"/>
-      <c r="G722" s="47"/>
-      <c r="H722" s="47"/>
-      <c r="I722" s="47"/>
-      <c r="J722" s="47"/>
-      <c r="K722" s="47"/>
-      <c r="L722" s="47"/>
-      <c r="M722" s="47"/>
-      <c r="N722" s="47"/>
-      <c r="O722" s="47"/>
-      <c r="P722" s="47"/>
-      <c r="Q722" s="47"/>
-      <c r="R722" s="47"/>
-      <c r="S722" s="47"/>
+      <c r="C722" s="55"/>
+      <c r="D722" s="55"/>
+      <c r="E722" s="55"/>
+      <c r="F722" s="55"/>
+      <c r="G722" s="55"/>
+      <c r="H722" s="55"/>
+      <c r="I722" s="55"/>
+      <c r="J722" s="55"/>
+      <c r="K722" s="55"/>
+      <c r="L722" s="55"/>
+      <c r="M722" s="55"/>
+      <c r="N722" s="55"/>
+      <c r="O722" s="55"/>
+      <c r="P722" s="55"/>
+      <c r="Q722" s="55"/>
+      <c r="R722" s="55"/>
+      <c r="S722" s="55"/>
       <c r="T722" s="35"/>
       <c r="U722" s="35"/>
       <c r="V722" s="35"/>
@@ -51012,6 +51012,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="M364:M365"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="N364:N365"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="O363:P363"/>
+    <mergeCell ref="L364:L365"/>
+    <mergeCell ref="B722:S722"/>
+    <mergeCell ref="Q363:Q365"/>
+    <mergeCell ref="I364:I365"/>
+    <mergeCell ref="J364:J365"/>
+    <mergeCell ref="K364:K365"/>
+    <mergeCell ref="B362:B366"/>
+    <mergeCell ref="D364:E364"/>
+    <mergeCell ref="I363:K363"/>
+    <mergeCell ref="P364:P365"/>
+    <mergeCell ref="C362:Q362"/>
+    <mergeCell ref="H364:H365"/>
+    <mergeCell ref="G364:G365"/>
+    <mergeCell ref="L363:N363"/>
+    <mergeCell ref="D363:H363"/>
+    <mergeCell ref="B717:S717"/>
+    <mergeCell ref="O364:O365"/>
     <mergeCell ref="B719:S719"/>
     <mergeCell ref="C363:C365"/>
     <mergeCell ref="F364:F365"/>
@@ -51028,32 +51054,6 @@
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="B722:S722"/>
-    <mergeCell ref="Q363:Q365"/>
-    <mergeCell ref="I364:I365"/>
-    <mergeCell ref="J364:J365"/>
-    <mergeCell ref="K364:K365"/>
-    <mergeCell ref="B362:B366"/>
-    <mergeCell ref="D364:E364"/>
-    <mergeCell ref="I363:K363"/>
-    <mergeCell ref="P364:P365"/>
-    <mergeCell ref="C362:Q362"/>
-    <mergeCell ref="H364:H365"/>
-    <mergeCell ref="G364:G365"/>
-    <mergeCell ref="L363:N363"/>
-    <mergeCell ref="D363:H363"/>
-    <mergeCell ref="B717:S717"/>
-    <mergeCell ref="O364:O365"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="N364:N365"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="O363:P363"/>
-    <mergeCell ref="L364:L365"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="M364:M365"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.17" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51105,7 +51105,7 @@
       </c>
     </row>
     <row r="4" spans="2:19" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -51128,12 +51128,12 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="44" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="44"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
@@ -51158,10 +51158,10 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="44"/>
+      <c r="S5" s="45"/>
     </row>
     <row r="6" spans="2:19" s="7" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="16" t="s">
         <v>54</v>
       </c>
@@ -51210,10 +51210,10 @@
       <c r="R6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="44"/>
+      <c r="S6" s="45"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="50"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="9">
         <v>-1</v>
       </c>
@@ -70988,26 +70988,26 @@
       <c r="S357" s="14"/>
     </row>
     <row r="358" spans="2:19" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B358" s="55" t="s">
+      <c r="B358" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C358" s="55"/>
-      <c r="D358" s="55"/>
-      <c r="E358" s="55"/>
-      <c r="F358" s="55"/>
-      <c r="G358" s="55"/>
-      <c r="H358" s="55"/>
-      <c r="I358" s="55"/>
-      <c r="J358" s="55"/>
-      <c r="K358" s="55"/>
-      <c r="L358" s="55"/>
-      <c r="M358" s="55"/>
-      <c r="N358" s="55"/>
-      <c r="O358" s="55"/>
-      <c r="P358" s="55"/>
-      <c r="Q358" s="55"/>
-      <c r="R358" s="55"/>
-      <c r="S358" s="55"/>
+      <c r="C358" s="43"/>
+      <c r="D358" s="43"/>
+      <c r="E358" s="43"/>
+      <c r="F358" s="43"/>
+      <c r="G358" s="43"/>
+      <c r="H358" s="43"/>
+      <c r="I358" s="43"/>
+      <c r="J358" s="43"/>
+      <c r="K358" s="43"/>
+      <c r="L358" s="43"/>
+      <c r="M358" s="43"/>
+      <c r="N358" s="43"/>
+      <c r="O358" s="43"/>
+      <c r="P358" s="43"/>
+      <c r="Q358" s="43"/>
+      <c r="R358" s="43"/>
+      <c r="S358" s="43"/>
     </row>
     <row r="359" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B359" s="2" t="s">
